--- a/__repository/template_import/temp_are_exp.xlsx
+++ b/__repository/template_import/temp_are_exp.xlsx
@@ -9,10 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Form Upload" sheetId="1" r:id="rId1"/>
+    <sheet name="Contoh Pengisian" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>No.</t>
   </si>
@@ -63,6 +64,45 @@
   </si>
   <si>
     <t>Location</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>PRK</t>
+  </si>
+  <si>
+    <t>801.01.00</t>
+  </si>
+  <si>
+    <t>Loanss</t>
+  </si>
+  <si>
+    <t>Biaya Penghasilan Pegawai</t>
+  </si>
+  <si>
+    <t>801.02.00</t>
+  </si>
+  <si>
+    <t>Biaya Tunjangan PPh Ps.21</t>
+  </si>
+  <si>
+    <t>801.05.03</t>
+  </si>
+  <si>
+    <t>Tunjangan Struktural</t>
+  </si>
+  <si>
+    <t>801.05.04</t>
+  </si>
+  <si>
+    <t>Tunjangan Prestasi</t>
+  </si>
+  <si>
+    <t>801.05.05</t>
+  </si>
+  <si>
+    <t>Tunjangan Presensi</t>
   </si>
 </sst>
 </file>
@@ -430,10 +470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M102"/>
+  <dimension ref="B2:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -445,15 +485,15 @@
     <col min="5" max="5" width="17.85546875" customWidth="1"/>
     <col min="6" max="6" width="20.7109375" customWidth="1"/>
     <col min="7" max="7" width="37.28515625" customWidth="1"/>
-    <col min="8" max="8" width="11.85546875" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.85546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.140625" customWidth="1"/>
-    <col min="12" max="12" width="16.42578125" customWidth="1"/>
-    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="11.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.140625" customWidth="1"/>
+    <col min="13" max="13" width="16.42578125" customWidth="1"/>
+    <col min="14" max="14" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" s="3" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
@@ -467,8 +507,9 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-    </row>
-    <row r="4" spans="2:13" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M2" s="5"/>
+    </row>
+    <row r="4" spans="2:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -491,22 +532,25 @@
         <v>9</v>
       </c>
       <c r="I4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -519,8 +563,9 @@
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
       <c r="M5" s="1"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -533,8 +578,9 @@
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -547,8 +593,9 @@
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -561,8 +608,9 @@
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -575,8 +623,9 @@
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -589,8 +638,9 @@
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
       <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N10" s="1"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -603,8 +653,9 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N11" s="1"/>
+    </row>
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -617,8 +668,9 @@
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N12" s="1"/>
+    </row>
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -631,8 +683,9 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N13" s="1"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -645,8 +698,9 @@
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
       <c r="M14" s="1"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N14" s="1"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -659,8 +713,9 @@
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
       <c r="M15" s="1"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N15" s="1"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -673,8 +728,9 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N16" s="1"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -687,8 +743,9 @@
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
       <c r="M17" s="1"/>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -701,8 +758,9 @@
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
       <c r="M18" s="1"/>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -715,8 +773,9 @@
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
       <c r="M19" s="1"/>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N19" s="1"/>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -729,8 +788,9 @@
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
       <c r="M20" s="1"/>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N20" s="1"/>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -743,8 +803,9 @@
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N21" s="1"/>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -757,8 +818,9 @@
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
       <c r="M22" s="1"/>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N22" s="1"/>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -771,8 +833,9 @@
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
       <c r="M23" s="1"/>
-    </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -785,8 +848,9 @@
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
       <c r="M24" s="1"/>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -799,8 +863,9 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="1"/>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -813,8 +878,9 @@
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
       <c r="M26" s="1"/>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N26" s="1"/>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -827,8 +893,9 @@
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
       <c r="M27" s="1"/>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -841,8 +908,9 @@
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
       <c r="M28" s="1"/>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N28" s="1"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -855,8 +923,9 @@
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
       <c r="M29" s="1"/>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N29" s="1"/>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -869,8 +938,9 @@
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
       <c r="M30" s="1"/>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N30" s="1"/>
+    </row>
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -883,8 +953,9 @@
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
       <c r="M31" s="1"/>
-    </row>
-    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N31" s="1"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -897,8 +968,9 @@
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N32" s="1"/>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -911,8 +983,9 @@
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
       <c r="M33" s="1"/>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N33" s="1"/>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -925,8 +998,9 @@
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
       <c r="M34" s="1"/>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N34" s="1"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -939,8 +1013,9 @@
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
       <c r="M35" s="1"/>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N35" s="1"/>
+    </row>
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="1"/>
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
@@ -953,8 +1028,9 @@
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
       <c r="M36" s="1"/>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N36" s="1"/>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -967,8 +1043,9 @@
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
       <c r="M37" s="1"/>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N37" s="1"/>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -981,8 +1058,9 @@
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="1"/>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N38" s="1"/>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -995,8 +1073,9 @@
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="1"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N39" s="1"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
@@ -1009,8 +1088,9 @@
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N40" s="1"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1023,8 +1103,9 @@
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
       <c r="M41" s="1"/>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1037,8 +1118,9 @@
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1051,8 +1133,9 @@
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
       <c r="M43" s="1"/>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B44" s="1"/>
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
@@ -1065,8 +1148,9 @@
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
       <c r="M44" s="1"/>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N44" s="1"/>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1079,8 +1163,9 @@
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
@@ -1093,8 +1178,9 @@
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N46" s="1"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
@@ -1107,8 +1193,9 @@
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N47" s="1"/>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
@@ -1121,8 +1208,9 @@
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
-    </row>
-    <row r="49" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N48" s="1"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
@@ -1135,8 +1223,9 @@
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
-    </row>
-    <row r="50" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N49" s="1"/>
+    </row>
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="1"/>
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
@@ -1149,8 +1238,9 @@
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-    </row>
-    <row r="51" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N50" s="1"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
@@ -1163,8 +1253,9 @@
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
-    </row>
-    <row r="52" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N51" s="1"/>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1177,8 +1268,9 @@
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
-    </row>
-    <row r="53" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1191,8 +1283,9 @@
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
-    </row>
-    <row r="54" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1205,8 +1298,9 @@
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
       <c r="M54" s="1"/>
-    </row>
-    <row r="55" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B55" s="1"/>
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
@@ -1219,8 +1313,9 @@
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
       <c r="M55" s="1"/>
-    </row>
-    <row r="56" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N55" s="1"/>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1233,8 +1328,9 @@
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
       <c r="M56" s="1"/>
-    </row>
-    <row r="57" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="1"/>
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
@@ -1247,8 +1343,9 @@
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
       <c r="M57" s="1"/>
-    </row>
-    <row r="58" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N57" s="1"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="1"/>
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
@@ -1261,8 +1358,9 @@
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
       <c r="M58" s="1"/>
-    </row>
-    <row r="59" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N58" s="1"/>
+    </row>
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="1"/>
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
@@ -1275,8 +1373,9 @@
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
       <c r="M59" s="1"/>
-    </row>
-    <row r="60" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N59" s="1"/>
+    </row>
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="1"/>
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
@@ -1289,8 +1388,9 @@
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
       <c r="M60" s="1"/>
-    </row>
-    <row r="61" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N60" s="1"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="1"/>
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
@@ -1303,8 +1403,9 @@
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
       <c r="M61" s="1"/>
-    </row>
-    <row r="62" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N61" s="1"/>
+    </row>
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="1"/>
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
@@ -1317,8 +1418,9 @@
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
       <c r="M62" s="1"/>
-    </row>
-    <row r="63" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N62" s="1"/>
+    </row>
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="1"/>
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
@@ -1331,8 +1433,9 @@
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
       <c r="M63" s="1"/>
-    </row>
-    <row r="64" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N63" s="1"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="1"/>
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
@@ -1345,8 +1448,9 @@
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
       <c r="M64" s="1"/>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N64" s="1"/>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="1"/>
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
@@ -1359,8 +1463,9 @@
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
       <c r="M65" s="1"/>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N65" s="1"/>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="1"/>
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
@@ -1373,8 +1478,9 @@
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N66" s="1"/>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="1"/>
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
@@ -1387,8 +1493,9 @@
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
       <c r="M67" s="1"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N67" s="1"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="1"/>
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
@@ -1401,8 +1508,9 @@
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
       <c r="M68" s="1"/>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N68" s="1"/>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="1"/>
       <c r="C69" s="1"/>
       <c r="D69" s="1"/>
@@ -1415,8 +1523,9 @@
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
       <c r="M69" s="1"/>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N69" s="1"/>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1429,8 +1538,9 @@
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
       <c r="M70" s="1"/>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1443,8 +1553,9 @@
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
       <c r="M71" s="1"/>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1457,8 +1568,9 @@
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
       <c r="M72" s="1"/>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -1471,8 +1583,9 @@
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
       <c r="M73" s="1"/>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N73" s="1"/>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1485,8 +1598,9 @@
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
       <c r="M74" s="1"/>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -1499,8 +1613,9 @@
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
       <c r="M75" s="1"/>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N75" s="1"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="1"/>
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
@@ -1513,8 +1628,9 @@
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N76" s="1"/>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="1"/>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -1527,8 +1643,9 @@
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
       <c r="M77" s="1"/>
-    </row>
-    <row r="78" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N77" s="1"/>
+    </row>
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="1"/>
       <c r="C78" s="1"/>
       <c r="D78" s="1"/>
@@ -1541,8 +1658,9 @@
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
       <c r="M78" s="1"/>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N78" s="1"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="1"/>
       <c r="C79" s="1"/>
       <c r="D79" s="1"/>
@@ -1555,8 +1673,9 @@
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
       <c r="M79" s="1"/>
-    </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N79" s="1"/>
+    </row>
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="1"/>
       <c r="C80" s="1"/>
       <c r="D80" s="1"/>
@@ -1569,8 +1688,9 @@
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
       <c r="M80" s="1"/>
-    </row>
-    <row r="81" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N80" s="1"/>
+    </row>
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="1"/>
       <c r="C81" s="1"/>
       <c r="D81" s="1"/>
@@ -1583,8 +1703,9 @@
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
-    </row>
-    <row r="82" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N81" s="1"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="1"/>
       <c r="C82" s="1"/>
       <c r="D82" s="1"/>
@@ -1597,8 +1718,9 @@
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
       <c r="M82" s="1"/>
-    </row>
-    <row r="83" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N82" s="1"/>
+    </row>
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="1"/>
       <c r="C83" s="1"/>
       <c r="D83" s="1"/>
@@ -1611,8 +1733,9 @@
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
       <c r="M83" s="1"/>
-    </row>
-    <row r="84" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N83" s="1"/>
+    </row>
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="1"/>
       <c r="C84" s="1"/>
       <c r="D84" s="1"/>
@@ -1625,8 +1748,9 @@
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
       <c r="M84" s="1"/>
-    </row>
-    <row r="85" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N84" s="1"/>
+    </row>
+    <row r="85" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B85" s="1"/>
       <c r="C85" s="1"/>
       <c r="D85" s="1"/>
@@ -1639,8 +1763,9 @@
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
       <c r="M85" s="1"/>
-    </row>
-    <row r="86" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N85" s="1"/>
+    </row>
+    <row r="86" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B86" s="1"/>
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
@@ -1653,8 +1778,9 @@
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
       <c r="M86" s="1"/>
-    </row>
-    <row r="87" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N86" s="1"/>
+    </row>
+    <row r="87" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B87" s="1"/>
       <c r="C87" s="1"/>
       <c r="D87" s="1"/>
@@ -1667,8 +1793,9 @@
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
-    </row>
-    <row r="88" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N87" s="1"/>
+    </row>
+    <row r="88" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B88" s="1"/>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
@@ -1681,8 +1808,9 @@
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
       <c r="M88" s="1"/>
-    </row>
-    <row r="89" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N88" s="1"/>
+    </row>
+    <row r="89" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B89" s="1"/>
       <c r="C89" s="1"/>
       <c r="D89" s="1"/>
@@ -1695,8 +1823,9 @@
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
       <c r="M89" s="1"/>
-    </row>
-    <row r="90" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N89" s="1"/>
+    </row>
+    <row r="90" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B90" s="1"/>
       <c r="C90" s="1"/>
       <c r="D90" s="1"/>
@@ -1709,8 +1838,9 @@
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
       <c r="M90" s="1"/>
-    </row>
-    <row r="91" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N90" s="1"/>
+    </row>
+    <row r="91" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B91" s="1"/>
       <c r="C91" s="1"/>
       <c r="D91" s="1"/>
@@ -1723,8 +1853,9 @@
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
       <c r="M91" s="1"/>
-    </row>
-    <row r="92" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N91" s="1"/>
+    </row>
+    <row r="92" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B92" s="1"/>
       <c r="C92" s="1"/>
       <c r="D92" s="1"/>
@@ -1737,8 +1868,9 @@
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
       <c r="M92" s="1"/>
-    </row>
-    <row r="93" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N92" s="1"/>
+    </row>
+    <row r="93" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B93" s="1"/>
       <c r="C93" s="1"/>
       <c r="D93" s="1"/>
@@ -1751,8 +1883,9 @@
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
       <c r="M93" s="1"/>
-    </row>
-    <row r="94" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N93" s="1"/>
+    </row>
+    <row r="94" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B94" s="1"/>
       <c r="C94" s="1"/>
       <c r="D94" s="1"/>
@@ -1765,8 +1898,9 @@
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
       <c r="M94" s="1"/>
-    </row>
-    <row r="95" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N94" s="1"/>
+    </row>
+    <row r="95" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B95" s="1"/>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -1779,8 +1913,9 @@
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
-    </row>
-    <row r="96" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N95" s="1"/>
+    </row>
+    <row r="96" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B96" s="1"/>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -1793,8 +1928,9 @@
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
       <c r="M96" s="1"/>
-    </row>
-    <row r="97" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N96" s="1"/>
+    </row>
+    <row r="97" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B97" s="1"/>
       <c r="C97" s="1"/>
       <c r="D97" s="1"/>
@@ -1807,8 +1943,9 @@
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
       <c r="M97" s="1"/>
-    </row>
-    <row r="98" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N97" s="1"/>
+    </row>
+    <row r="98" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B98" s="1"/>
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
@@ -1821,8 +1958,9 @@
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
-    </row>
-    <row r="99" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N98" s="1"/>
+    </row>
+    <row r="99" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B99" s="1"/>
       <c r="C99" s="1"/>
       <c r="D99" s="1"/>
@@ -1835,8 +1973,9 @@
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
       <c r="M99" s="1"/>
-    </row>
-    <row r="100" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N99" s="1"/>
+    </row>
+    <row r="100" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B100" s="1"/>
       <c r="C100" s="1"/>
       <c r="D100" s="1"/>
@@ -1849,8 +1988,9 @@
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
       <c r="M100" s="1"/>
-    </row>
-    <row r="101" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N100" s="1"/>
+    </row>
+    <row r="101" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B101" s="1"/>
       <c r="C101" s="1"/>
       <c r="D101" s="1"/>
@@ -1863,8 +2003,9 @@
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
       <c r="M101" s="1"/>
-    </row>
-    <row r="102" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="N101" s="1"/>
+    </row>
+    <row r="102" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B102" s="1"/>
       <c r="C102" s="1"/>
       <c r="D102" s="1"/>
@@ -1877,12 +2018,242 @@
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
+      <c r="N102" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B2:L2"/>
+    <mergeCell ref="B2:M2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:N9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="1.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" customWidth="1"/>
+    <col min="6" max="6" width="16" customWidth="1"/>
+    <col min="7" max="7" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="N3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="1">
+        <v>62624900</v>
+      </c>
+      <c r="I4" s="1">
+        <v>10000</v>
+      </c>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="1">
+        <v>7099320</v>
+      </c>
+      <c r="I5" s="1">
+        <v>20000</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1648000</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1">
+        <v>10</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="1">
+        <v>40700000</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
+        <v>20</v>
+      </c>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="1">
+        <v>3264000</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
+        <v>10</v>
+      </c>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>